--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husey\OneDrive\Masaüstü\Yeni klasör\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCFF44D-08AA-4025-8E82-3D0ECDB9482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37DCC7-7789-4C55-A6C8-D4D65DD44190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="7290" windowWidth="21060" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="570" windowWidth="21060" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
+    <t>Ulaşım Maliyeti</t>
+  </si>
+  <si>
+    <t>Konaklama Maliyeti</t>
+  </si>
+  <si>
+    <t>Konaklama Süresi (Gün)</t>
+  </si>
+  <si>
+    <t>Merkeze Uzaklık (Km)</t>
+  </si>
+  <si>
+    <t>Değerlendirme Puanı (10)</t>
+  </si>
+  <si>
+    <t>Hava Sıcaklığı</t>
+  </si>
+  <si>
+    <t>Denizli</t>
+  </si>
+  <si>
+    <t>Adana</t>
+  </si>
+  <si>
+    <t>Adıyaman</t>
+  </si>
+  <si>
+    <t>Kars</t>
+  </si>
+  <si>
+    <t>Ulaşım Süresi (Dk)</t>
+  </si>
+  <si>
     <t>Seçenekler</t>
-  </si>
-  <si>
-    <t>Ulaşım Maliyeti</t>
-  </si>
-  <si>
-    <t>Ulaşım Süresi (Dk)</t>
-  </si>
-  <si>
-    <t>Konaklama Maliyeti</t>
-  </si>
-  <si>
-    <t>Konaklama Süresi (Gün)</t>
-  </si>
-  <si>
-    <t>Merkeze Uzaklık (Km)</t>
-  </si>
-  <si>
-    <t>Değerlendirme Puanı (10)</t>
-  </si>
-  <si>
-    <t>Hava Sıcaklığı</t>
-  </si>
-  <si>
-    <t>Denizli</t>
-  </si>
-  <si>
-    <t>Adana</t>
-  </si>
-  <si>
-    <t>Adıyaman</t>
-  </si>
-  <si>
-    <t>Kars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -431,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -448,34 +455,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4123</v>
@@ -501,7 +508,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>14124</v>
@@ -527,7 +534,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1234</v>
@@ -553,7 +560,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>325</v>
@@ -579,7 +586,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4123</v>
@@ -605,7 +612,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>14124</v>
@@ -631,7 +638,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1234</v>
@@ -657,7 +664,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>325</v>
@@ -683,7 +690,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>4123</v>
@@ -709,7 +716,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>14124</v>
@@ -735,7 +742,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1234</v>
@@ -761,7 +768,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>325</v>
@@ -787,7 +794,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>4123</v>
@@ -813,7 +820,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>14124</v>
@@ -839,7 +846,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1234</v>
@@ -865,7 +872,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>325</v>
